--- a/test/data.xlsx
+++ b/test/data.xlsx
@@ -1,33 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valent0ne/Projects/netflics/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\netflics\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A74972-C75F-C147-B2CE-587A5BB8B32F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF830D4E-41B8-4D1B-8589-228F768746FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{B4BCF4DC-9C55-5A4C-A021-AC0CA1D0BF97}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{B4BCF4DC-9C55-5A4C-A021-AC0CA1D0BF97}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL AWAKE" sheetId="1" r:id="rId1"/>
     <sheet name="ALL SLEEP" sheetId="2" r:id="rId2"/>
     <sheet name="ONE AVAILABLE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="18">
   <si>
     <t>Requests</t>
   </si>
@@ -75,6 +80,12 @@
   </si>
   <si>
     <t>FREE SLOTS AVARAGE</t>
+  </si>
+  <si>
+    <t>avg tta</t>
+  </si>
+  <si>
+    <t>avg ttc</t>
   </si>
 </sst>
 </file>
@@ -231,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -320,6 +331,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,7 +415,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -614,7 +626,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -652,7 +664,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1012765007"/>
@@ -739,7 +751,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -771,7 +783,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1014321551"/>
@@ -819,7 +831,1580 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>TTC</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="11"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>10</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ALL SLEEP'!$G$4:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>[h]:mm:ss.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.1614583333330319E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1618055555562279E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1649305555549994E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1587962962955611E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1614583333330319E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1581018518524999E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1579861111110645E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1579861111110645E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1594907407408428E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1640046296301776E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1582175925939353E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-73A4-4B5D-8327-91BE54708088}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="583108696"/>
+        <c:axId val="583104432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="583108696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="583104432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="583104432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[h]:mm:ss.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="583108696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Suppier1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ONE AVAILABLE'!$B$21:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>[h]:mm:ss.000</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.61620355324074072</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6162098958333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6162098958333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61622379629629631</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6163256597222222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6163256597222222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61633940972222223</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61633960648148145</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61636259259259263</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.616386400462963</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61645520833333334</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61647835648148142</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6165021643518519</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ONE AVAILABLE'!$C$21:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C1EE-834C-B134-FE162676B2AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1013308367"/>
+        <c:axId val="994774591"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1013308367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TIME</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="[h]:mm:ss.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="994774591"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="994774591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FREEE SLOTS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1013308367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>TTA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="11"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>10</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ONE AVAILABLE'!$F$4:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>[h]:mm:ss.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.3946759259273485E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1412037037028533E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1064814814675259E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4583333333151316E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4351851852500985E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2847222221612498E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0439814815430566E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.747685185238268E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7129629630296961E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3148148148299796E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1574074073594787E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-427A-414F-A8E0-A508611B88FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="686369528"/>
+        <c:axId val="686343616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="686369528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="686343616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="686343616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[h]:mm:ss.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="686369528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>TTC</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="11"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>10</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ONE AVAILABLE'!$G$4:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>[h]:mm:ss.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.1611111111109462E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1611111111109462E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1583333333331503E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8587962962968163E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7765046296303044E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8038194444447431E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7707175925929519E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1583333333331503E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1579861111110645E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1578703703696291E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7689814814814131E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-33EE-4150-8162-FBEDCBF27675}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="583095592"/>
+        <c:axId val="583095920"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="583095592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="583095920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="583095920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[h]:mm:ss.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="583095592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -895,7 +2480,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -911,7 +2496,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -922,11 +2507,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="00B0F0"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1052,7 +2637,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1090,7 +2675,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="979619743"/>
@@ -1178,7 +2763,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1210,7 +2795,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1048730735"/>
@@ -1258,7 +2843,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1334,7 +2919,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1545,7 +3130,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1583,7 +3168,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1078446943"/>
@@ -1665,7 +3250,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1697,7 +3282,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1054602655"/>
@@ -1745,7 +3330,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1757,6 +3342,730 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>TTA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="11"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>10</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ALL AWAKE'!$F$4:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>[h]:mm:ss.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.7581018518564306E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.719907407300326E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0601851852264375E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6736111111147487E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8356481481806028E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1064814814675259E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1990740741717474E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2916666666539243E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1412037036760978E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7939814814748054E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8032407407028188E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-77DF-4F3B-9A74-D335A7D34EEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="672315880"/>
+        <c:axId val="672312600"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="672315880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="672312600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="672312600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[h]:mm:ss.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="672315880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>TTC</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="11"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>10</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ALL AWAKE'!$G$4:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>[h]:mm:ss.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.1598379629629285E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1583333333331503E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1582175925917149E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2738425925917785E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2737268518514533E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2736111111122383E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1582175925917149E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1582175925928251E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1579861111110645E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1584490740734754E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1581018518524999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F37B-4CA8-9E35-63940FDEBD45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="663004288"/>
+        <c:axId val="663010848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="663004288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663010848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="663010848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[h]:mm:ss.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663004288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1821,7 +4130,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2026,7 +4335,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2064,7 +4373,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1055996799"/>
@@ -2152,7 +4461,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2184,7 +4493,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1050273583"/>
@@ -2232,7 +4541,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2243,7 +4552,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2602,7 +4911,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1053889023"/>
@@ -2696,7 +5005,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1012700575"/>
@@ -2716,7 +5025,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2727,7 +5036,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2800,7 +5109,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2816,7 +5125,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2827,11 +5136,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="00B0F0"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2853,7 +5162,7 @@
                   <c:v>0.60359890046296294</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18693244212962964</c:v>
+                  <c:v>0.6035991087962963</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.60360737268518516</c:v>
@@ -2981,7 +5290,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3019,7 +5328,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="974823087"/>
@@ -3101,7 +5410,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3133,7 +5442,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="979870143"/>
@@ -3181,7 +5490,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3192,7 +5501,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3226,8 +5535,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Suppier1</a:t>
+              <a:rPr lang="en-GB"/>
+              <a:t>TTA</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3257,7 +5566,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3273,7 +5582,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FFC000"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3284,108 +5593,93 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FFC000"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>'ONE AVAILABLE'!$B$21:$B$33</c:f>
-              <c:numCache>
-                <c:formatCode>[h]:mm:ss.000</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.61620355324074072</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.6162098958333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6162098958333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.61622379629629631</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.6163256597222222</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6163256597222222</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.61633940972222223</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.61633960648148145</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.61636259259259263</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.616386400462963</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.61645520833333334</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.61647835648148142</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.6165021643518519</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="11"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>10</c:v>
+              </c:pt>
+            </c:numLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ONE AVAILABLE'!$C$21:$C$33</c:f>
+              <c:f>'ALL SLEEP'!$F$4:$F$14</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:formatCode>[h]:mm:ss.000</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>1.0356481481488267E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>8.1064814814735264E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>5.7569444444460771E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>6.2002314814901816E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>1.1319444444546356E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>2.8888888888856101E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>2.6851851850917541E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>4.0914351851828457E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>1.7256944444432598E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>2.1759259258846697E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>3.1249999998816946E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3393,7 +5687,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C1EE-834C-B134-FE162676B2AF}"/>
+              <c16:uniqueId val="{00000000-AA83-4ED3-A042-171C00E0066C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3407,72 +5701,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1013308367"/>
-        <c:axId val="994774591"/>
+        <c:axId val="583104104"/>
+        <c:axId val="583105088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1013308367"/>
+        <c:axId val="583104104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>TIME</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="[h]:mm:ss.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3506,10 +5745,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="994774591"/>
+        <c:crossAx val="583105088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3517,7 +5756,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="994774591"/>
+        <c:axId val="583105088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3537,62 +5776,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>FREEE SLOTS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="[h]:mm:ss.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3620,10 +5804,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013308367"/>
+        <c:crossAx val="583104104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3668,7 +5852,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3680,6 +5864,126 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3919,6 +6223,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -4422,7 +6846,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4925,7 +7349,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5428,7 +7852,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5931,7 +8355,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6434,7 +8858,3025 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7042,6 +12484,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>833437</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>376237</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B3FD1FD-F3FF-4996-8588-A2FA241C7047}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>814387</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EFF9ECF-CBE1-4313-BD0E-5D7504FAB993}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7160,6 +12674,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>385762</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>766762</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8D8420B-7887-4B73-ABA3-05C0FCE7333B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>814387</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01E882D1-DC36-4DF1-A8D1-E17012B29B12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7196,6 +12782,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1004887</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>614362</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60A9A90-4524-40AD-A639-9E300FD54829}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>747712</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74CCAB1E-17B1-4E1F-A06B-BDA046A7B5A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7503,27 +13161,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87648E9-50C0-6744-B77B-B0348604CE95}">
   <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView topLeftCell="E37" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
     <col min="5" max="5" width="21.5" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -7543,7 +13201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>0</v>
       </c>
@@ -7565,7 +13223,7 @@
         <v>1.1598379629629285E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <f>B4+1</f>
         <v>1</v>
@@ -7588,7 +13246,7 @@
         <v>1.1583333333331503E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <f t="shared" ref="B6:B14" si="1">B5+1</f>
         <v>2</v>
@@ -7611,7 +13269,7 @@
         <v>1.1582175925917149E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -7634,7 +13292,7 @@
         <v>1.2738425925917785E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -7657,7 +13315,7 @@
         <v>1.2737268518514533E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -7680,7 +13338,7 @@
         <v>1.2736111111122383E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -7703,7 +13361,7 @@
         <v>1.1582175925917149E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -7726,7 +13384,7 @@
         <v>1.1582175925928251E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -7749,7 +13407,7 @@
         <v>1.1579861111110645E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -7772,7 +13430,7 @@
         <v>1.1584490740734754E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -7795,12 +13453,30 @@
         <v>1.1581018518524999E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="32">
+        <f>AVERAGE(F4:F14)</f>
+        <v>8.4922138047126659E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="32">
+        <f>AVERAGE(G4:G14)</f>
+        <v>1.1898674242422585E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>6</v>
       </c>
@@ -7811,7 +13487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>0.60775153935185189</v>
       </c>
@@ -7822,7 +13498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>0.60775563657407405</v>
       </c>
@@ -7833,7 +13509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>0.60776321759259255</v>
       </c>
@@ -7844,7 +13520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>0.60778572916666673</v>
       </c>
@@ -7855,7 +13531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>0.60787140046296295</v>
       </c>
@@ -7866,7 +13542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>0.60787858796296301</v>
       </c>
@@ -7877,7 +13553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>0.60787901620370366</v>
       </c>
@@ -7888,7 +13564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <v>0.60790152777777784</v>
       </c>
@@ -7899,7 +13575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>0.60790188657407407</v>
       </c>
@@ -7910,7 +13586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <v>0.60792491898148149</v>
       </c>
@@ -7921,7 +13597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>0.60799437499999998</v>
       </c>
@@ -7932,7 +13608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <v>0.60801767361111114</v>
       </c>
@@ -7943,7 +13619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
         <v>0.608040625</v>
       </c>
@@ -7954,11 +13630,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" s="27" t="s">
         <v>15</v>
       </c>
@@ -7968,17 +13644,17 @@
       </c>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
         <v>6</v>
       </c>
@@ -7989,7 +13665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" s="4">
         <v>0.60775143518518515</v>
       </c>
@@ -8000,7 +13676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" s="4">
         <v>0.60775501157407408</v>
       </c>
@@ -8011,7 +13687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" s="4">
         <v>0.60780913194444441</v>
       </c>
@@ -8022,7 +13698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" s="4">
         <v>0.60784439814814817</v>
       </c>
@@ -8033,7 +13709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="4">
         <v>0.60783357638888891</v>
       </c>
@@ -8044,7 +13720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" s="4">
         <v>0.60785530092592588</v>
       </c>
@@ -8055,7 +13731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" s="4">
         <v>0.60794861111111109</v>
       </c>
@@ -8066,7 +13742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" s="4">
         <v>0.60794936342592598</v>
       </c>
@@ -8077,7 +13753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" s="4">
         <v>0.60797106481481478</v>
       </c>
@@ -8088,7 +13764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" s="4">
         <v>0.60797390046296296</v>
       </c>
@@ -8099,7 +13775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" s="4">
         <v>0.6079739467592592</v>
       </c>
@@ -8110,7 +13786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" s="4">
         <v>0.6080897106481481</v>
       </c>
@@ -8121,7 +13797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B55" s="4">
         <v>0.60808972222222224</v>
       </c>
@@ -8132,11 +13808,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" s="27" t="s">
         <v>15</v>
       </c>
@@ -8146,12 +13822,12 @@
       </c>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>11</v>
       </c>
@@ -8160,14 +13836,14 @@
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="11" t="s">
         <v>6</v>
@@ -8180,7 +13856,7 @@
       </c>
       <c r="E66" s="10"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="13">
         <v>0.6077514814814815</v>
@@ -8193,7 +13869,7 @@
       </c>
       <c r="E67" s="10"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="16">
         <v>0.6077549884259259</v>
@@ -8206,7 +13882,7 @@
       </c>
       <c r="E68" s="10"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="16">
         <v>0.60794881944444445</v>
@@ -8219,7 +13895,7 @@
       </c>
       <c r="E69" s="10"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="13">
         <v>0.60797410879629632</v>
@@ -8232,13 +13908,13 @@
       </c>
       <c r="E70" s="10"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="19"/>
       <c r="D71" s="21"/>
       <c r="E71" s="10"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="27" t="s">
         <v>15</v>
@@ -8250,263 +13926,263 @@
       <c r="D72" s="21"/>
       <c r="E72" s="10"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="19"/>
       <c r="C73" s="20"/>
       <c r="D73" s="21"/>
       <c r="E73" s="10"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="19"/>
       <c r="C74" s="20"/>
       <c r="D74" s="21"/>
       <c r="E74" s="10"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="19"/>
       <c r="C75" s="20"/>
       <c r="D75" s="21"/>
       <c r="E75" s="10"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="19"/>
       <c r="C76" s="20"/>
       <c r="D76" s="21"/>
       <c r="E76" s="10"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C79" s="24"/>
       <c r="D79" s="25"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="29"/>
       <c r="B80" s="31"/>
       <c r="C80" s="31"/>
       <c r="D80" s="31"/>
       <c r="E80" s="29"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="29"/>
       <c r="B81" s="24"/>
       <c r="C81" s="25"/>
       <c r="D81" s="26"/>
       <c r="E81" s="29"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="29"/>
       <c r="B82" s="24"/>
       <c r="C82" s="25"/>
       <c r="D82" s="26"/>
       <c r="E82" s="29"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="29"/>
       <c r="B83" s="24"/>
       <c r="C83" s="25"/>
       <c r="D83" s="26"/>
       <c r="E83" s="29"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="29"/>
       <c r="B84" s="24"/>
       <c r="C84" s="25"/>
       <c r="D84" s="26"/>
       <c r="E84" s="29"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="29"/>
       <c r="B85" s="24"/>
       <c r="C85" s="25"/>
       <c r="D85" s="26"/>
       <c r="E85" s="29"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="29"/>
       <c r="B86" s="24"/>
       <c r="C86" s="25"/>
       <c r="D86" s="26"/>
       <c r="E86" s="30"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="29"/>
       <c r="B87" s="24"/>
       <c r="C87" s="25"/>
       <c r="D87" s="26"/>
       <c r="E87" s="30"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="29"/>
       <c r="B88" s="24"/>
       <c r="C88" s="25"/>
       <c r="D88" s="26"/>
       <c r="E88" s="30"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="29"/>
       <c r="B89" s="24"/>
       <c r="C89" s="25"/>
       <c r="D89" s="26"/>
       <c r="E89" s="30"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="29"/>
       <c r="B90" s="24"/>
       <c r="C90" s="25"/>
       <c r="D90" s="26"/>
       <c r="E90" s="30"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="29"/>
       <c r="B91" s="24"/>
       <c r="C91" s="25"/>
       <c r="D91" s="26"/>
       <c r="E91" s="30"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="29"/>
       <c r="B92" s="24"/>
       <c r="C92" s="25"/>
       <c r="D92" s="26"/>
       <c r="E92" s="30"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="29"/>
       <c r="B93" s="24"/>
       <c r="C93" s="25"/>
       <c r="D93" s="26"/>
       <c r="E93" s="30"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="29"/>
       <c r="B94" s="19"/>
       <c r="C94" s="20"/>
       <c r="D94" s="21"/>
       <c r="E94" s="30"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="29"/>
       <c r="B95" s="19"/>
       <c r="C95" s="20"/>
       <c r="D95" s="21"/>
       <c r="E95" s="30"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="29"/>
       <c r="B96" s="19"/>
       <c r="C96" s="20"/>
       <c r="D96" s="21"/>
       <c r="E96" s="30"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="29"/>
       <c r="B97" s="19"/>
       <c r="C97" s="20"/>
       <c r="D97" s="21"/>
       <c r="E97" s="30"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="29"/>
       <c r="B98" s="19"/>
       <c r="C98" s="20"/>
       <c r="D98" s="21"/>
       <c r="E98" s="30"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="29"/>
       <c r="B99" s="19"/>
       <c r="C99" s="20"/>
       <c r="D99" s="21"/>
       <c r="E99" s="30"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="29"/>
       <c r="B100" s="19"/>
       <c r="C100" s="20"/>
       <c r="D100" s="21"/>
       <c r="E100" s="30"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="29"/>
       <c r="B101" s="19"/>
       <c r="C101" s="20"/>
       <c r="D101" s="21"/>
       <c r="E101" s="30"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="29"/>
       <c r="B102" s="19"/>
       <c r="C102" s="20"/>
       <c r="D102" s="21"/>
       <c r="E102" s="30"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="29"/>
       <c r="B103" s="19"/>
       <c r="C103" s="20"/>
       <c r="D103" s="21"/>
       <c r="E103" s="30"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="29"/>
       <c r="B104" s="19"/>
       <c r="C104" s="20"/>
       <c r="D104" s="21"/>
       <c r="E104" s="30"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="29"/>
       <c r="B105" s="19"/>
       <c r="C105" s="20"/>
       <c r="D105" s="21"/>
       <c r="E105" s="30"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="29"/>
       <c r="B106" s="19"/>
       <c r="C106" s="20"/>
       <c r="D106" s="21"/>
       <c r="E106" s="30"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="29"/>
       <c r="B107" s="19"/>
       <c r="C107" s="20"/>
       <c r="D107" s="21"/>
       <c r="E107" s="30"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="29"/>
       <c r="B108" s="19"/>
       <c r="C108" s="20"/>
       <c r="D108" s="21"/>
       <c r="E108" s="30"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="29"/>
       <c r="B109" s="19"/>
       <c r="C109" s="20"/>
       <c r="D109" s="21"/>
       <c r="E109" s="30"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="29"/>
       <c r="B110" s="19"/>
       <c r="C110" s="20"/>
       <c r="D110" s="21"/>
       <c r="E110" s="30"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="30"/>
       <c r="B111" s="30"/>
       <c r="C111" s="30"/>
       <c r="D111" s="30"/>
       <c r="E111" s="30"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="30"/>
       <c r="B112" s="30"/>
       <c r="C112" s="30"/>
@@ -8523,26 +14199,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FF45FC-E20A-C948-82FA-AEAD58E5ECB2}">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.125" customWidth="1"/>
+    <col min="7" max="7" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -8562,7 +14238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>0</v>
       </c>
@@ -8584,7 +14260,7 @@
         <v>1.1614583333330319E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <f>B4+1</f>
         <v>1</v>
@@ -8607,7 +14283,7 @@
         <v>1.1618055555562279E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <f t="shared" ref="B6:B14" si="2">B5+1</f>
         <v>2</v>
@@ -8630,7 +14306,7 @@
         <v>1.1649305555549994E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -8653,7 +14329,7 @@
         <v>1.1587962962955611E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -8676,7 +14352,7 @@
         <v>1.1614583333330319E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -8699,7 +14375,7 @@
         <v>1.1581018518524999E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -8722,7 +14398,7 @@
         <v>1.1579861111110645E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -8745,7 +14421,7 @@
         <v>1.1579861111110645E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -8768,7 +14444,7 @@
         <v>1.1594907407408428E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -8791,7 +14467,7 @@
         <v>1.1640046296301776E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -8814,12 +14490,30 @@
         <v>1.1582175925939353E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="32">
+        <f>AVERAGE(F4:F14)</f>
+        <v>3.7324284511772923E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="32">
+        <f>AVERAGE(G4:G14)</f>
+        <v>1.1603851010102215E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>6</v>
       </c>
@@ -8830,7 +14524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>0.60343033564814819</v>
       </c>
@@ -8841,7 +14535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>0.60343994212962959</v>
       </c>
@@ -8852,7 +14546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>0.60349974537037043</v>
       </c>
@@ -8863,7 +14557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>0.60350005787037031</v>
       </c>
@@ -8874,7 +14568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>0.60350009259259263</v>
       </c>
@@ -8885,7 +14579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>0.60350009259259263</v>
       </c>
@@ -8896,7 +14590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>0.60361574074074076</v>
       </c>
@@ -8907,7 +14601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <v>0.60361583333333335</v>
       </c>
@@ -8918,7 +14612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>0.60361590277777777</v>
       </c>
@@ -8929,7 +14623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <v>0.60361590277777777</v>
       </c>
@@ -8940,7 +14634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>0.60363091435185179</v>
       </c>
@@ -8951,7 +14645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <v>0.60374670138888886</v>
       </c>
@@ -8962,12 +14656,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" s="27" t="s">
         <v>15</v>
       </c>
@@ -8977,17 +14671,17 @@
       </c>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
         <v>6</v>
       </c>
@@ -8998,7 +14692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" s="4">
         <v>0.60343031250000001</v>
       </c>
@@ -9009,7 +14703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" s="4">
         <v>0.6034404166666667</v>
       </c>
@@ -9020,7 +14714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" s="4">
         <v>0.60349813657407403</v>
       </c>
@@ -9031,7 +14725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" s="4">
         <v>0.60350148148148153</v>
       </c>
@@ -9042,7 +14736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" s="4">
         <v>0.60352739583333337</v>
       </c>
@@ -9053,7 +14747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="4">
         <v>0.60353768518518514</v>
       </c>
@@ -9064,7 +14758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" s="4">
         <v>0.60354068287037033</v>
       </c>
@@ -9075,7 +14769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" s="4">
         <v>0.60364321759259265</v>
       </c>
@@ -9086,7 +14780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" s="4">
         <v>0.60365344907407403</v>
       </c>
@@ -9097,7 +14791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" s="4">
         <v>0.6036564699074074</v>
       </c>
@@ -9108,12 +14802,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="5"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" s="27" t="s">
         <v>15</v>
       </c>
@@ -9123,12 +14817,12 @@
       </c>
       <c r="D53" s="5"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>11</v>
       </c>
@@ -9137,14 +14831,14 @@
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="11" t="s">
         <v>6</v>
@@ -9157,7 +14851,7 @@
       </c>
       <c r="E62" s="10"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="13">
         <v>0.60356432870370369</v>
@@ -9170,7 +14864,7 @@
       </c>
       <c r="E63" s="10"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="16">
         <v>0.60357388888888885</v>
@@ -9183,7 +14877,7 @@
       </c>
       <c r="E64" s="10"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="16">
         <v>0.60359890046296294</v>
@@ -9196,10 +14890,10 @@
       </c>
       <c r="E65" s="10"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="13">
-        <v>0.18693244212962964</v>
+        <v>0.6035991087962963</v>
       </c>
       <c r="C66" s="22">
         <v>3</v>
@@ -9209,7 +14903,7 @@
       </c>
       <c r="E66" s="10"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="13">
         <v>0.60360737268518516</v>
@@ -9222,7 +14916,7 @@
       </c>
       <c r="E67" s="10"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="13">
         <v>0.60371482638888885</v>
@@ -9235,7 +14929,7 @@
       </c>
       <c r="E68" s="10"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="13">
         <v>0.6037148726851852</v>
@@ -9248,7 +14942,7 @@
       </c>
       <c r="E69" s="10"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="13">
         <v>0.60372314814814809</v>
@@ -9261,14 +14955,14 @@
       </c>
       <c r="E70" s="10"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="19"/>
       <c r="C71" s="20"/>
       <c r="D71" s="21"/>
       <c r="E71" s="10"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="27" t="s">
         <v>15</v>
@@ -9290,25 +14984,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A96CCA-3003-0A4D-B42F-E9FB56B3A79B}">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" customWidth="1"/>
+    <col min="2" max="3" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="21.875" customWidth="1"/>
+    <col min="5" max="5" width="21.625" customWidth="1"/>
+    <col min="6" max="6" width="21.375" customWidth="1"/>
+    <col min="7" max="7" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -9328,7 +15022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>0</v>
       </c>
@@ -9350,7 +15044,7 @@
         <v>1.1611111111109462E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <f>B4+1</f>
         <v>1</v>
@@ -9373,7 +15067,7 @@
         <v>1.1611111111109462E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <f t="shared" ref="B6:B14" si="2">B5+1</f>
         <v>2</v>
@@ -9396,7 +15090,7 @@
         <v>1.1583333333331503E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -9419,7 +15113,7 @@
         <v>1.8587962962968163E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -9442,7 +15136,7 @@
         <v>1.7765046296303044E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -9465,7 +15159,7 @@
         <v>1.8038194444447431E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -9488,7 +15182,7 @@
         <v>1.7707175925929519E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -9511,7 +15205,7 @@
         <v>1.1583333333331503E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -9534,7 +15228,7 @@
         <v>1.1579861111110645E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -9557,7 +15251,7 @@
         <v>1.1578703703696291E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -9580,12 +15274,30 @@
         <v>1.7689814814814131E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="32">
+        <f>AVERAGE(F4:F14)</f>
+        <v>5.6018518518633185E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="32">
+        <f>AVERAGE(G4:G14)</f>
+        <v>1.4485058922559195E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>6</v>
       </c>
@@ -9596,7 +15308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>0.61620355324074072</v>
       </c>
@@ -9607,7 +15319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>0.6162098958333333</v>
       </c>
@@ -9618,7 +15330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>0.6162098958333333</v>
       </c>
@@ -9629,7 +15341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>0.61622379629629631</v>
       </c>
@@ -9640,7 +15352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>0.6163256597222222</v>
       </c>
@@ -9651,7 +15363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>0.6163256597222222</v>
       </c>
@@ -9662,7 +15374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>0.61633940972222223</v>
       </c>
@@ -9673,7 +15385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <v>0.61633960648148145</v>
       </c>
@@ -9684,7 +15396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>0.61636259259259263</v>
       </c>
@@ -9695,7 +15407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <v>0.616386400462963</v>
       </c>
@@ -9706,7 +15418,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>0.61645520833333334</v>
       </c>
@@ -9717,7 +15429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <v>0.61647835648148142</v>
       </c>
@@ -9728,7 +15440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
         <v>0.6165021643518519</v>
       </c>
@@ -9739,12 +15451,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="28" t="s">
         <v>15</v>
       </c>
@@ -9754,153 +15466,153 @@
       </c>
       <c r="D35" s="5"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="24"/>
       <c r="C42" s="25"/>
       <c r="D42" s="26"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="24"/>
       <c r="C43" s="25"/>
       <c r="D43" s="26"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="24"/>
       <c r="C44" s="25"/>
       <c r="D44" s="26"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="24"/>
       <c r="C45" s="25"/>
       <c r="D45" s="26"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="24"/>
       <c r="C46" s="25"/>
       <c r="D46" s="26"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="24"/>
       <c r="C47" s="25"/>
       <c r="D47" s="26"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="24"/>
       <c r="C48" s="25"/>
       <c r="D48" s="26"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" s="24"/>
       <c r="C49" s="25"/>
       <c r="D49" s="26"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" s="24"/>
       <c r="C50" s="25"/>
       <c r="D50" s="26"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" s="24"/>
       <c r="C51" s="25"/>
       <c r="D51" s="26"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="5"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="5"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="E62" s="10"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="19"/>
       <c r="C63" s="20"/>
       <c r="D63" s="21"/>
       <c r="E63" s="10"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="19"/>
       <c r="C64" s="20"/>
       <c r="D64" s="21"/>
       <c r="E64" s="10"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="19"/>
       <c r="C65" s="20"/>
       <c r="D65" s="21"/>
       <c r="E65" s="10"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="19"/>
       <c r="C66" s="20"/>
       <c r="D66" s="21"/>
       <c r="E66" s="10"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="19"/>
       <c r="C67" s="20"/>
       <c r="D67" s="21"/>
       <c r="E67" s="10"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="19"/>
       <c r="C68" s="20"/>
       <c r="D68" s="21"/>
       <c r="E68" s="10"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="19"/>
       <c r="C69" s="20"/>
       <c r="D69" s="21"/>
       <c r="E69" s="10"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="19"/>
       <c r="C70" s="20"/>
       <c r="D70" s="21"/>
       <c r="E70" s="10"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="19"/>
       <c r="C71" s="20"/>
       <c r="D71" s="21"/>
       <c r="E71" s="10"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="19"/>
       <c r="C72" s="20"/>
